--- a/Dataset3/Detection_result/results_all.xlsx
+++ b/Dataset3/Detection_result/results_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SmartContract\Github\VulHunter\Dataset3\Detection_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6507E44-95E9-4F2C-B9A4-33DFF4E9056A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8499ADC-18F3-42AB-862E-531A411D7E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,6 @@
     <sheet name="results_dataset3_all" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1214,7 +1204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
